--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5184B3A8-DBDF-8241-9E16-5105CBF0C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFA6A-3EAC-3F44-A55B-F2F409231A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16100" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D77E38-7A85-3643-B44F-D1187292017F}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -739,7 +739,9 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AN3" s="1" t="s">
         <v>0</v>
       </c>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFA6A-3EAC-3F44-A55B-F2F409231A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4398974C-3ADC-1C4A-A258-29F1B719E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D77E38-7A85-3643-B44F-D1187292017F}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -723,8 +723,9 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -771,23 +772,18 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -823,23 +819,17 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" t="s">
-        <v>1</v>
-      </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -880,32 +870,19 @@
       <c r="S6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -938,43 +915,23 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="W7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -1030,30 +987,25 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1088,34 +1040,25 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1152,34 +1095,24 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Z10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -1212,34 +1145,25 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="W11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1274,42 +1198,25 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -1343,29 +1250,24 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="W13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -1399,29 +1301,24 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="W14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -1457,25 +1354,24 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -1509,25 +1405,24 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -1561,25 +1456,24 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -1613,27 +1507,23 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -1669,19 +1559,19 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -1721,14 +1611,18 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4398974C-3ADC-1C4A-A258-29F1B719E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D833556-4781-D74D-A0AC-6C1E97535A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -446,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D77E38-7A85-3643-B44F-D1187292017F}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1766,4 +1767,8452 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775CD2A0-0816-F849-9712-FEB3742FCBEA}">
+  <dimension ref="A1:FD81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="BY1" zoomScale="75" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="AA42" sqref="AA42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="100" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="160" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:160">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+      <c r="CC1">
+        <v>80</v>
+      </c>
+      <c r="CD1">
+        <v>81</v>
+      </c>
+      <c r="CE1">
+        <v>82</v>
+      </c>
+      <c r="CF1">
+        <v>83</v>
+      </c>
+      <c r="CG1">
+        <v>84</v>
+      </c>
+      <c r="CH1">
+        <v>85</v>
+      </c>
+      <c r="CI1">
+        <v>86</v>
+      </c>
+      <c r="CJ1">
+        <v>87</v>
+      </c>
+      <c r="CK1">
+        <v>88</v>
+      </c>
+      <c r="CL1">
+        <v>89</v>
+      </c>
+      <c r="CM1">
+        <v>90</v>
+      </c>
+      <c r="CN1">
+        <v>91</v>
+      </c>
+      <c r="CO1">
+        <v>92</v>
+      </c>
+      <c r="CP1">
+        <v>93</v>
+      </c>
+      <c r="CQ1">
+        <v>94</v>
+      </c>
+      <c r="CR1">
+        <v>95</v>
+      </c>
+      <c r="CS1">
+        <v>96</v>
+      </c>
+      <c r="CT1">
+        <v>97</v>
+      </c>
+      <c r="CU1">
+        <v>98</v>
+      </c>
+      <c r="CV1">
+        <v>99</v>
+      </c>
+      <c r="CW1">
+        <v>100</v>
+      </c>
+      <c r="CX1">
+        <v>101</v>
+      </c>
+      <c r="CY1">
+        <v>102</v>
+      </c>
+      <c r="CZ1">
+        <v>103</v>
+      </c>
+      <c r="DA1">
+        <v>104</v>
+      </c>
+      <c r="DB1">
+        <v>105</v>
+      </c>
+      <c r="DC1">
+        <v>106</v>
+      </c>
+      <c r="DD1">
+        <v>107</v>
+      </c>
+      <c r="DE1">
+        <v>108</v>
+      </c>
+      <c r="DF1">
+        <v>109</v>
+      </c>
+      <c r="DG1">
+        <v>110</v>
+      </c>
+      <c r="DH1">
+        <v>111</v>
+      </c>
+      <c r="DI1">
+        <v>112</v>
+      </c>
+      <c r="DJ1">
+        <v>113</v>
+      </c>
+      <c r="DK1">
+        <v>114</v>
+      </c>
+      <c r="DL1">
+        <v>115</v>
+      </c>
+      <c r="DM1">
+        <v>116</v>
+      </c>
+      <c r="DN1">
+        <v>117</v>
+      </c>
+      <c r="DO1">
+        <v>118</v>
+      </c>
+      <c r="DP1">
+        <v>119</v>
+      </c>
+      <c r="DQ1">
+        <v>120</v>
+      </c>
+      <c r="DR1">
+        <v>121</v>
+      </c>
+      <c r="DS1">
+        <v>122</v>
+      </c>
+      <c r="DT1">
+        <v>123</v>
+      </c>
+      <c r="DU1">
+        <v>124</v>
+      </c>
+      <c r="DV1">
+        <v>125</v>
+      </c>
+      <c r="DW1">
+        <v>126</v>
+      </c>
+      <c r="DX1">
+        <v>127</v>
+      </c>
+      <c r="DY1">
+        <v>128</v>
+      </c>
+      <c r="DZ1">
+        <v>129</v>
+      </c>
+      <c r="EA1">
+        <v>130</v>
+      </c>
+      <c r="EB1">
+        <v>131</v>
+      </c>
+      <c r="EC1">
+        <v>132</v>
+      </c>
+      <c r="ED1">
+        <v>133</v>
+      </c>
+      <c r="EE1">
+        <v>134</v>
+      </c>
+      <c r="EF1">
+        <v>135</v>
+      </c>
+      <c r="EG1">
+        <v>136</v>
+      </c>
+      <c r="EH1">
+        <v>137</v>
+      </c>
+      <c r="EI1">
+        <v>138</v>
+      </c>
+      <c r="EJ1">
+        <v>139</v>
+      </c>
+      <c r="EK1">
+        <v>140</v>
+      </c>
+      <c r="EL1">
+        <v>141</v>
+      </c>
+      <c r="EM1">
+        <v>142</v>
+      </c>
+      <c r="EN1">
+        <v>143</v>
+      </c>
+      <c r="EO1">
+        <v>144</v>
+      </c>
+      <c r="EP1">
+        <v>145</v>
+      </c>
+      <c r="EQ1">
+        <v>146</v>
+      </c>
+      <c r="ER1">
+        <v>147</v>
+      </c>
+      <c r="ES1">
+        <v>148</v>
+      </c>
+      <c r="ET1">
+        <v>149</v>
+      </c>
+      <c r="EU1">
+        <v>150</v>
+      </c>
+      <c r="EV1">
+        <v>151</v>
+      </c>
+      <c r="EW1">
+        <v>152</v>
+      </c>
+      <c r="EX1">
+        <v>153</v>
+      </c>
+      <c r="EY1">
+        <v>154</v>
+      </c>
+      <c r="EZ1">
+        <v>155</v>
+      </c>
+      <c r="FA1">
+        <v>156</v>
+      </c>
+      <c r="FB1">
+        <v>157</v>
+      </c>
+      <c r="FC1">
+        <v>158</v>
+      </c>
+      <c r="FD1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:160">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:160">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:160">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:160">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:160">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:160">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:160">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:160">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:160">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:160">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:160">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC12" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:160">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:160">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:160">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:160">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:160">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:160">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:160">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:160">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC20" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:160">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:160">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC22" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:160">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:160">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:160">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:160">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC26" t="s">
+        <v>2</v>
+      </c>
+      <c r="FD26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:160">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:160">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:160">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:160">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:160">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:160">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:160">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:160">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:160">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:160">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:160">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:160">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:160">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:160">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:160">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:160">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:160">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="FD43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:160">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:160">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:160">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:160">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:160">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:160">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:160">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:160">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:160">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:160">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:160">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:160">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:160">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:160">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:160">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:160">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:160">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:160">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:160">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:160">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:160">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:160">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:160">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:160">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:160">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:160">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" t="s">
+        <v>1</v>
+      </c>
+      <c r="S69" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
+        <v>1</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
+        <v>1</v>
+      </c>
+      <c r="X69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY69" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC69" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER69" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES69" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY69" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ69" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA69" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB69" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC69" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:160">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>1</v>
+      </c>
+      <c r="V70" t="s">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
+        <v>1</v>
+      </c>
+      <c r="X70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY70" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC70" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER70" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES70" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY70" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ70" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA70" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB70" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC70" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:160">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>1</v>
+      </c>
+      <c r="V71" t="s">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>1</v>
+      </c>
+      <c r="X71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY71" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC71" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER71" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES71" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY71" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ71" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA71" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB71" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC71" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:160">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>1</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1</v>
+      </c>
+      <c r="S72" t="s">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1</v>
+      </c>
+      <c r="U72" t="s">
+        <v>1</v>
+      </c>
+      <c r="V72" t="s">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
+        <v>1</v>
+      </c>
+      <c r="X72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY72" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC72" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER72" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES72" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY72" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ72" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA72" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB72" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC72" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:160">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>1</v>
+      </c>
+      <c r="W73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN73" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY73" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC73" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER73" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES73" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY73" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ73" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA73" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB73" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC73" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:160">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1</v>
+      </c>
+      <c r="S74" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1</v>
+      </c>
+      <c r="U74" t="s">
+        <v>1</v>
+      </c>
+      <c r="V74" t="s">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY74" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC74" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER74" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES74" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY74" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ74" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA74" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB74" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC74" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:160">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1</v>
+      </c>
+      <c r="R75" t="s">
+        <v>1</v>
+      </c>
+      <c r="S75" t="s">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
+        <v>1</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1</v>
+      </c>
+      <c r="V75" t="s">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
+        <v>1</v>
+      </c>
+      <c r="X75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN75" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY75" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC75" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER75" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES75" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY75" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ75" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA75" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB75" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC75" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:160">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>1</v>
+      </c>
+      <c r="S76" t="s">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
+        <v>1</v>
+      </c>
+      <c r="U76" t="s">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
+        <v>1</v>
+      </c>
+      <c r="X76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY76" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC76" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER76" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES76" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY76" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ76" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA76" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB76" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC76" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:160">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>1</v>
+      </c>
+      <c r="S77" t="s">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
+        <v>1</v>
+      </c>
+      <c r="U77" t="s">
+        <v>1</v>
+      </c>
+      <c r="V77" t="s">
+        <v>1</v>
+      </c>
+      <c r="W77" t="s">
+        <v>1</v>
+      </c>
+      <c r="X77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY77" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC77" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER77" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES77" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY77" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ77" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA77" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB77" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC77" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:160">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1</v>
+      </c>
+      <c r="S78" t="s">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s">
+        <v>1</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1</v>
+      </c>
+      <c r="W78" t="s">
+        <v>1</v>
+      </c>
+      <c r="X78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN78" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY78" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC78" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER78" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES78" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY78" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ78" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA78" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB78" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC78" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:160">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" t="s">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
+        <v>1</v>
+      </c>
+      <c r="U79" t="s">
+        <v>1</v>
+      </c>
+      <c r="V79" t="s">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>1</v>
+      </c>
+      <c r="X79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY79" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC79" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER79" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES79" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY79" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ79" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA79" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB79" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC79" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:160">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s">
+        <v>1</v>
+      </c>
+      <c r="U80" t="s">
+        <v>1</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1</v>
+      </c>
+      <c r="W80" t="s">
+        <v>1</v>
+      </c>
+      <c r="X80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY80" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC80" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER80" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES80" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY80" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ80" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA80" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB80" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC80" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:160">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" t="s">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
+        <v>1</v>
+      </c>
+      <c r="U81" t="s">
+        <v>1</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>1</v>
+      </c>
+      <c r="X81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY81" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY81" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY81" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER81" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES81" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY81" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ81" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA81" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB81" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC81" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D833556-4781-D74D-A0AC-6C1E97535A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92840ED-7CEC-4840-934A-D11D5C7E6D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -448,7 +449,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1773,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775CD2A0-0816-F849-9712-FEB3742FCBEA}">
   <dimension ref="A1:FD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" zoomScale="75" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
@@ -10215,4 +10216,4174 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFF293-CFCF-C442-9602-323C28CC1965}">
+  <dimension ref="A1:CB41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="80" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Map.xlsx
+++ b/Map.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92840ED-7CEC-4840-934A-D11D5C7E6D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18751E94-9DCF-1443-A959-2F90D881B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6083" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -1774,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775CD2A0-0816-F849-9712-FEB3742FCBEA}">
   <dimension ref="A1:FD81"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView topLeftCell="AV20" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
@@ -10222,7 +10223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFF293-CFCF-C442-9602-323C28CC1965}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
@@ -14386,4 +14387,6433 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77E1C9D-330D-ED4E-8F70-C737AD2FFF55}">
+  <dimension ref="A1:CB41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AU31" sqref="AU31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="80" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Map.xlsx
+++ b/Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18751E94-9DCF-1443-A959-2F90D881B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13431C4-179E-F84A-8845-EEF3D2ECCD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6083" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6083" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14393,8 +14401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77E1C9D-330D-ED4E-8F70-C737AD2FFF55}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AU31" sqref="AU31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" workbookViewId="0">
+      <selection activeCell="BW18" sqref="BW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16472,7 +16480,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA10" t="s">
         <v>1</v>
@@ -16543,10 +16551,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA11" t="s">
         <v>1</v>
@@ -16620,7 +16628,7 @@
         <v>3</v>
       </c>
       <c r="BZ12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA12" t="s">
         <v>1</v>
@@ -16697,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="BZ13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA13" t="s">
         <v>1</v>
@@ -16768,13 +16776,13 @@
         <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP14" t="s">
         <v>1</v>
       </c>
       <c r="BZ14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA14" t="s">
         <v>1</v>
@@ -16845,13 +16853,13 @@
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP15" t="s">
         <v>1</v>
       </c>
       <c r="BZ15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA15" t="s">
         <v>1</v>
@@ -16931,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="BZ16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA16" t="s">
         <v>1</v>
@@ -17082,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z18" t="s">
         <v>1</v>
@@ -17159,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z19" t="s">
         <v>1</v>
@@ -17390,7 +17398,7 @@
         <v>1</v>
       </c>
       <c r="U22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="s">
         <v>1</v>
@@ -17467,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="U23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
@@ -17686,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="U26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA26" t="s">
         <v>1</v>
@@ -17757,7 +17765,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA27" t="s">
         <v>1</v>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13431C4-179E-F84A-8845-EEF3D2ECCD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD36428-C744-F34B-8201-B202A672C9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" activeTab="4" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6083" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -14401,7 +14402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77E1C9D-330D-ED4E-8F70-C737AD2FFF55}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="118" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="BW18" sqref="BW18"/>
     </sheetView>
   </sheetViews>
@@ -20824,4 +20825,7516 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE6B930-DE9D-CA48-9BE2-17DA5D86DA40}">
+  <dimension ref="A1:CB41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="80" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E7C5F4-AB36-AC48-B063-DE6132771AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A8F72-EB6A-8F49-A619-C9945F732449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="4" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15668" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15676" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -20834,8 +20834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE6B930-DE9D-CA48-9BE2-17DA5D86DA40}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="BL19" sqref="BL19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="69" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -22338,6 +22338,12 @@
         <v>1</v>
       </c>
       <c r="BA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
@@ -28347,7 +28353,7 @@
   <dimension ref="A1:CB41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT32"/>
+      <selection activeCell="BX9" sqref="BX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -29852,6 +29858,12 @@
       <c r="BA9" t="s">
         <v>1</v>
       </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>1</v>
+      </c>
       <c r="BY9" t="s">
         <v>1</v>
       </c>
@@ -35906,8 +35918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E86A50-54C4-A846-99A1-6B175814B72D}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="BV17" sqref="BV17"/>
+    <sheetView topLeftCell="A2" zoomScale="69" workbookViewId="0">
+      <selection activeCell="BX9" sqref="BX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -37410,6 +37422,12 @@
         <v>1</v>
       </c>
       <c r="BA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
         <v>1</v>
       </c>
       <c r="BY9" t="s">
@@ -43434,7 +43452,7 @@
   <dimension ref="A1:CB41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="69" workbookViewId="0">
-      <selection activeCell="BM8" sqref="BM8"/>
+      <selection activeCell="BX9" sqref="BX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -44951,6 +44969,12 @@
       <c r="BA9" t="s">
         <v>1</v>
       </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>1</v>
+      </c>
       <c r="BY9" t="s">
         <v>1</v>
       </c>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD23B5-3865-1949-A3E1-1FBD6E993F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF6243-4D31-8447-B684-71DE899CB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="9" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9482576-F360-EB4F-B59A-AE51842AEACD}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="88" workbookViewId="0">
+      <selection activeCell="BY23" sqref="BY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="BY22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA22" t="s">
         <v>1</v>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBF6243-4D31-8447-B684-71DE899CB20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DED124-2DC6-4D44-8981-599993544E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="9" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="10" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="Sheet5壁3" sheetId="10" r:id="rId8"/>
     <sheet name="s8" sheetId="13" r:id="rId9"/>
     <sheet name="s9_幅広" sheetId="14" r:id="rId10"/>
-    <sheet name="管理用" sheetId="12" r:id="rId11"/>
+    <sheet name="s10" sheetId="15" r:id="rId11"/>
+    <sheet name="管理用" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20463" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22859" uniqueCount="17">
   <si>
     <t>x</t>
   </si>
@@ -95,6 +96,22 @@
   </si>
   <si>
     <t>s2g1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s1,s2,g1,g2,s2g1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s1,s2,g1,g2,s2g1,s1g2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1817,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9482576-F360-EB4F-B59A-AE51842AEACD}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="88" workbookViewId="0">
-      <selection activeCell="BY23" sqref="BY23"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9334,11 +9351,7531 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB63716-5940-4743-8BFD-457F8924A0D6}">
+  <dimension ref="A1:CB41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="74" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.7109375" customWidth="1"/>
+    <col min="76" max="80" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795188ED-CB87-2345-B7F6-FB617ED7C899}">
-  <dimension ref="C8:E8"/>
+  <dimension ref="C8:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9352,6 +16889,22 @@
       </c>
       <c r="E8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DED124-2DC6-4D44-8981-599993544E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08F833F-B75C-6741-BF69-F0EAABA01DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="10" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22859" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22859" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>s1,s2,g1,g2,s2g1,s1g2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s1g2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9354,8 +9358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB63716-5940-4743-8BFD-457F8924A0D6}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="AU6" zoomScale="88" workbookViewId="0">
+      <selection activeCell="BS16" sqref="BS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12214,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="BY20" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="CA20" t="s">
         <v>1</v>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CBE29-B250-E944-921C-28369E58E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665B3EA-ED3C-4A49-AFEB-FC20D32CB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="14" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="-1860" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="12" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32444" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32445" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -16882,8 +16882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983805E6-E442-394C-8037-5397AE7D6B28}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="W16" zoomScale="88" workbookViewId="0">
-      <selection activeCell="CC14" sqref="CC14"/>
+    <sheetView topLeftCell="X1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18470,6 +18470,9 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
+      <c r="BO10" t="s">
+        <v>1</v>
+      </c>
       <c r="BY10" t="s">
         <v>1</v>
       </c>
@@ -18543,9 +18546,6 @@
       </c>
       <c r="T11" t="s">
         <v>7</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>1</v>
       </c>
       <c r="BY11" t="s">
         <v>1</v>
@@ -24405,8 +24405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E5D565-2F97-1542-B197-BD1C1D9AF9C8}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BL12" sqref="BL12"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="BV15" sqref="BV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -25993,18 +25993,6 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-      <c r="BO10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>1</v>
-      </c>
       <c r="BY10" t="s">
         <v>1</v>
       </c>
@@ -26079,6 +26067,9 @@
       <c r="T11" t="s">
         <v>7</v>
       </c>
+      <c r="BV11" t="s">
+        <v>1</v>
+      </c>
       <c r="BY11" t="s">
         <v>1</v>
       </c>
@@ -26174,6 +26165,9 @@
       <c r="AA12" t="s">
         <v>1</v>
       </c>
+      <c r="BV12" t="s">
+        <v>1</v>
+      </c>
       <c r="BY12" t="s">
         <v>1</v>
       </c>
@@ -26272,6 +26266,9 @@
       <c r="AB13" t="s">
         <v>1</v>
       </c>
+      <c r="BV13" t="s">
+        <v>1</v>
+      </c>
       <c r="BY13" t="s">
         <v>1</v>
       </c>
@@ -26377,6 +26374,9 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV14" t="s">
         <v>1</v>
       </c>
       <c r="BY14" t="s">
@@ -39475,8 +39475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7648C1-7D54-E54D-A93A-16F562D685BB}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BO23" sqref="BO23"/>
+    <sheetView topLeftCell="AN3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="BQ12" sqref="BQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -41062,6 +41062,9 @@
       </c>
       <c r="T10" t="s">
         <v>7</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>1</v>
       </c>
       <c r="BY10" t="s">
         <v>1</v>

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665B3EA-ED3C-4A49-AFEB-FC20D32CB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DF75B-98C4-2940-9882-4CDDD309F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="12" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32445" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32470" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -16882,8 +16882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983805E6-E442-394C-8037-5397AE7D6B28}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="BO11" sqref="BO11"/>
+    <sheetView topLeftCell="AK2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="BX22" sqref="BX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18470,9 +18470,6 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-      <c r="BO10" t="s">
-        <v>1</v>
-      </c>
       <c r="BY10" t="s">
         <v>1</v>
       </c>
@@ -18847,6 +18844,9 @@
       <c r="AE14" t="s">
         <v>1</v>
       </c>
+      <c r="BW14" t="s">
+        <v>1</v>
+      </c>
       <c r="BY14" t="s">
         <v>5</v>
       </c>
@@ -18954,6 +18954,9 @@
       <c r="AF15" t="s">
         <v>1</v>
       </c>
+      <c r="BW15" t="s">
+        <v>1</v>
+      </c>
       <c r="BY15" t="s">
         <v>1</v>
       </c>
@@ -19064,6 +19067,9 @@
       <c r="AG16" t="s">
         <v>1</v>
       </c>
+      <c r="BW16" t="s">
+        <v>1</v>
+      </c>
       <c r="BY16" t="s">
         <v>5</v>
       </c>
@@ -19225,6 +19231,12 @@
       <c r="BA17" t="s">
         <v>1</v>
       </c>
+      <c r="BW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1</v>
+      </c>
       <c r="BY17" t="s">
         <v>1</v>
       </c>
@@ -19565,6 +19577,9 @@
       <c r="BG19" t="s">
         <v>1</v>
       </c>
+      <c r="BX19" t="s">
+        <v>1</v>
+      </c>
       <c r="BY19" t="s">
         <v>1</v>
       </c>
@@ -19932,6 +19947,9 @@
       <c r="BG21" t="s">
         <v>1</v>
       </c>
+      <c r="BX21" t="s">
+        <v>1</v>
+      </c>
       <c r="BY21" t="s">
         <v>1</v>
       </c>
@@ -20308,6 +20326,9 @@
       <c r="BG23" t="s">
         <v>1</v>
       </c>
+      <c r="BX23" t="s">
+        <v>1</v>
+      </c>
       <c r="BY23" t="s">
         <v>1</v>
       </c>
@@ -20684,6 +20705,9 @@
       <c r="BG25" t="s">
         <v>1</v>
       </c>
+      <c r="BX25" t="s">
+        <v>1</v>
+      </c>
       <c r="BY25" t="s">
         <v>1</v>
       </c>
@@ -21070,6 +21094,9 @@
         <v>1</v>
       </c>
       <c r="BR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX27" t="s">
         <v>1</v>
       </c>
       <c r="BY27" t="s">
@@ -24405,8 +24432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E5D565-2F97-1542-B197-BD1C1D9AF9C8}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BV15" sqref="BV15"/>
+    <sheetView tabSelected="1" topLeftCell="AV3" zoomScale="110" workbookViewId="0">
+      <selection activeCell="CD15" sqref="CD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -26067,9 +26094,6 @@
       <c r="T11" t="s">
         <v>7</v>
       </c>
-      <c r="BV11" t="s">
-        <v>1</v>
-      </c>
       <c r="BY11" t="s">
         <v>1</v>
       </c>
@@ -26165,9 +26189,6 @@
       <c r="AA12" t="s">
         <v>1</v>
       </c>
-      <c r="BV12" t="s">
-        <v>1</v>
-      </c>
       <c r="BY12" t="s">
         <v>1</v>
       </c>
@@ -26266,9 +26287,6 @@
       <c r="AB13" t="s">
         <v>1</v>
       </c>
-      <c r="BV13" t="s">
-        <v>1</v>
-      </c>
       <c r="BY13" t="s">
         <v>1</v>
       </c>
@@ -26376,9 +26394,6 @@
       <c r="AE14" t="s">
         <v>1</v>
       </c>
-      <c r="BV14" t="s">
-        <v>1</v>
-      </c>
       <c r="BY14" t="s">
         <v>5</v>
       </c>
@@ -26486,6 +26501,9 @@
       <c r="AF15" t="s">
         <v>1</v>
       </c>
+      <c r="BX15" t="s">
+        <v>1</v>
+      </c>
       <c r="BY15" t="s">
         <v>1</v>
       </c>
@@ -26757,6 +26775,12 @@
       <c r="BA17" t="s">
         <v>1</v>
       </c>
+      <c r="BW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1</v>
+      </c>
       <c r="BY17" t="s">
         <v>1</v>
       </c>
@@ -27097,6 +27121,15 @@
       <c r="BG19" t="s">
         <v>1</v>
       </c>
+      <c r="BV19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>1</v>
+      </c>
       <c r="BY19" t="s">
         <v>1</v>
       </c>
@@ -27462,6 +27495,18 @@
         <v>1</v>
       </c>
       <c r="BG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX21" t="s">
         <v>1</v>
       </c>
       <c r="BY21" t="s">
@@ -31937,8 +31982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536EB846-FCF4-744C-837C-1B6F938504DA}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BM13" sqref="BM13"/>
+    <sheetView topLeftCell="AM1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="BY18" sqref="BY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -33329,12 +33374,6 @@
       <c r="BA8" t="s">
         <v>7</v>
       </c>
-      <c r="BQ8" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>1</v>
-      </c>
       <c r="BW8" t="s">
         <v>12</v>
       </c>
@@ -33451,12 +33490,6 @@
       <c r="BA9" t="s">
         <v>1</v>
       </c>
-      <c r="BP9" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>1</v>
-      </c>
       <c r="BW9" t="s">
         <v>1</v>
       </c>
@@ -33537,12 +33570,6 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-      <c r="BO10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>1</v>
-      </c>
       <c r="BY10" t="s">
         <v>1</v>
       </c>
@@ -33617,6 +33644,12 @@
       <c r="T11" t="s">
         <v>7</v>
       </c>
+      <c r="BV11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>1</v>
+      </c>
       <c r="BY11" t="s">
         <v>1</v>
       </c>
@@ -33712,6 +33745,9 @@
       <c r="AA12" t="s">
         <v>1</v>
       </c>
+      <c r="BV12" t="s">
+        <v>1</v>
+      </c>
       <c r="BY12" t="s">
         <v>1</v>
       </c>
@@ -33810,6 +33846,12 @@
       <c r="AB13" t="s">
         <v>1</v>
       </c>
+      <c r="BV13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>1</v>
+      </c>
       <c r="BY13" t="s">
         <v>1</v>
       </c>
@@ -33917,6 +33959,9 @@
       <c r="AE14" t="s">
         <v>1</v>
       </c>
+      <c r="BV14" t="s">
+        <v>1</v>
+      </c>
       <c r="BY14" t="s">
         <v>5</v>
       </c>
@@ -34024,6 +34069,12 @@
       <c r="AF15" t="s">
         <v>1</v>
       </c>
+      <c r="BV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>1</v>
+      </c>
       <c r="BY15" t="s">
         <v>1</v>
       </c>
@@ -34134,6 +34185,9 @@
       <c r="AG16" t="s">
         <v>1</v>
       </c>
+      <c r="BV16" t="s">
+        <v>1</v>
+      </c>
       <c r="BY16" t="s">
         <v>5</v>
       </c>
@@ -34295,6 +34349,12 @@
       <c r="BA17" t="s">
         <v>1</v>
       </c>
+      <c r="BV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>1</v>
+      </c>
       <c r="BY17" t="s">
         <v>1</v>
       </c>
@@ -34456,6 +34516,9 @@
       <c r="BA18" t="s">
         <v>1</v>
       </c>
+      <c r="BV18" t="s">
+        <v>1</v>
+      </c>
       <c r="BY18" t="s">
         <v>5</v>
       </c>
@@ -34635,6 +34698,9 @@
       <c r="BG19" t="s">
         <v>1</v>
       </c>
+      <c r="BX19" t="s">
+        <v>1</v>
+      </c>
       <c r="BY19" t="s">
         <v>1</v>
       </c>
@@ -35002,6 +35068,9 @@
       <c r="BG21" t="s">
         <v>1</v>
       </c>
+      <c r="BX21" t="s">
+        <v>1</v>
+      </c>
       <c r="BY21" t="s">
         <v>1</v>
       </c>
@@ -35378,6 +35447,9 @@
       <c r="BG23" t="s">
         <v>1</v>
       </c>
+      <c r="BX23" t="s">
+        <v>1</v>
+      </c>
       <c r="BY23" t="s">
         <v>1</v>
       </c>
@@ -35752,6 +35824,9 @@
         <v>1</v>
       </c>
       <c r="BG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX25" t="s">
         <v>1</v>
       </c>
       <c r="BY25" t="s">

--- a/Map.xlsx
+++ b/Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wa/Documents/futinobe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DF75B-98C4-2940-9882-4CDDD309F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A04BF5D-4464-1045-A141-BB70EE3E975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="12" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="15" xr2:uid="{A2F7AF96-0EF0-C340-B2D4-9F375104F2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="s12" sheetId="17" r:id="rId13"/>
     <sheet name="s13" sheetId="18" r:id="rId14"/>
     <sheet name="s14" sheetId="19" r:id="rId15"/>
-    <sheet name="管理用" sheetId="12" r:id="rId16"/>
+    <sheet name="s15" sheetId="20" r:id="rId16"/>
+    <sheet name="管理用" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32470" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34997" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -16882,8 +16883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983805E6-E442-394C-8037-5397AE7D6B28}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="AK2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="BX22" sqref="BX22"/>
+    <sheetView topLeftCell="AJ2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="CF34" sqref="CF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18850,6 +18851,9 @@
       <c r="BY14" t="s">
         <v>5</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
       <c r="CA14" t="s">
         <v>1</v>
       </c>
@@ -18960,6 +18964,9 @@
       <c r="BY15" t="s">
         <v>1</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>1</v>
+      </c>
       <c r="CA15" t="s">
         <v>1</v>
       </c>
@@ -19073,6 +19080,9 @@
       <c r="BY16" t="s">
         <v>5</v>
       </c>
+      <c r="BZ16" t="s">
+        <v>1</v>
+      </c>
       <c r="CA16" t="s">
         <v>1</v>
       </c>
@@ -19240,6 +19250,9 @@
       <c r="BY17" t="s">
         <v>1</v>
       </c>
+      <c r="BZ17" t="s">
+        <v>1</v>
+      </c>
       <c r="CA17" t="s">
         <v>1</v>
       </c>
@@ -19401,6 +19414,9 @@
       <c r="BY18" t="s">
         <v>5</v>
       </c>
+      <c r="BZ18" t="s">
+        <v>1</v>
+      </c>
       <c r="CA18" t="s">
         <v>1</v>
       </c>
@@ -19583,6 +19599,9 @@
       <c r="BY19" t="s">
         <v>1</v>
       </c>
+      <c r="BZ19" t="s">
+        <v>1</v>
+      </c>
       <c r="CA19" t="s">
         <v>1</v>
       </c>
@@ -19762,6 +19781,9 @@
       <c r="BY20" t="s">
         <v>17</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>1</v>
+      </c>
       <c r="CA20" t="s">
         <v>1</v>
       </c>
@@ -19953,6 +19975,9 @@
       <c r="BY21" t="s">
         <v>1</v>
       </c>
+      <c r="BZ21" t="s">
+        <v>1</v>
+      </c>
       <c r="CA21" t="s">
         <v>1</v>
       </c>
@@ -20141,6 +20166,9 @@
       <c r="BY22" t="s">
         <v>6</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>1</v>
+      </c>
       <c r="CA22" t="s">
         <v>1</v>
       </c>
@@ -20332,6 +20360,9 @@
       <c r="BY23" t="s">
         <v>1</v>
       </c>
+      <c r="BZ23" t="s">
+        <v>1</v>
+      </c>
       <c r="CA23" t="s">
         <v>1</v>
       </c>
@@ -20520,6 +20551,9 @@
       <c r="BY24" t="s">
         <v>6</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>1</v>
+      </c>
       <c r="CA24" t="s">
         <v>1</v>
       </c>
@@ -20711,6 +20745,9 @@
       <c r="BY25" t="s">
         <v>1</v>
       </c>
+      <c r="BZ25" t="s">
+        <v>1</v>
+      </c>
       <c r="CA25" t="s">
         <v>1</v>
       </c>
@@ -20898,6 +20935,9 @@
       </c>
       <c r="BY26" t="s">
         <v>6</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
         <v>1</v>
@@ -24432,8 +24472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E5D565-2F97-1542-B197-BD1C1D9AF9C8}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="CD15" sqref="CD15"/>
+    <sheetView topLeftCell="S4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="CE26" sqref="CE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -26397,6 +26437,9 @@
       <c r="BY14" t="s">
         <v>5</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
       <c r="CA14" t="s">
         <v>1</v>
       </c>
@@ -26507,6 +26550,9 @@
       <c r="BY15" t="s">
         <v>1</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>1</v>
+      </c>
       <c r="CA15" t="s">
         <v>1</v>
       </c>
@@ -26617,6 +26663,9 @@
       <c r="BY16" t="s">
         <v>5</v>
       </c>
+      <c r="BZ16" t="s">
+        <v>1</v>
+      </c>
       <c r="CA16" t="s">
         <v>1</v>
       </c>
@@ -26784,6 +26833,9 @@
       <c r="BY17" t="s">
         <v>1</v>
       </c>
+      <c r="BZ17" t="s">
+        <v>1</v>
+      </c>
       <c r="CA17" t="s">
         <v>1</v>
       </c>
@@ -26945,6 +26997,9 @@
       <c r="BY18" t="s">
         <v>5</v>
       </c>
+      <c r="BZ18" t="s">
+        <v>1</v>
+      </c>
       <c r="CA18" t="s">
         <v>1</v>
       </c>
@@ -27133,6 +27188,9 @@
       <c r="BY19" t="s">
         <v>1</v>
       </c>
+      <c r="BZ19" t="s">
+        <v>1</v>
+      </c>
       <c r="CA19" t="s">
         <v>1</v>
       </c>
@@ -27312,6 +27370,9 @@
       <c r="BY20" t="s">
         <v>17</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>1</v>
+      </c>
       <c r="CA20" t="s">
         <v>1</v>
       </c>
@@ -27512,6 +27573,9 @@
       <c r="BY21" t="s">
         <v>1</v>
       </c>
+      <c r="BZ21" t="s">
+        <v>1</v>
+      </c>
       <c r="CA21" t="s">
         <v>1</v>
       </c>
@@ -27700,6 +27764,9 @@
       <c r="BY22" t="s">
         <v>6</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>1</v>
+      </c>
       <c r="CA22" t="s">
         <v>1</v>
       </c>
@@ -27888,6 +27955,9 @@
       <c r="BY23" t="s">
         <v>1</v>
       </c>
+      <c r="BZ23" t="s">
+        <v>1</v>
+      </c>
       <c r="CA23" t="s">
         <v>1</v>
       </c>
@@ -28076,6 +28146,9 @@
       <c r="BY24" t="s">
         <v>6</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>1</v>
+      </c>
       <c r="CA24" t="s">
         <v>1</v>
       </c>
@@ -28264,6 +28337,9 @@
       <c r="BY25" t="s">
         <v>1</v>
       </c>
+      <c r="BZ25" t="s">
+        <v>1</v>
+      </c>
       <c r="CA25" t="s">
         <v>1</v>
       </c>
@@ -28451,6 +28527,9 @@
       </c>
       <c r="BY26" t="s">
         <v>6</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
         <v>1</v>
@@ -31982,8 +32061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536EB846-FCF4-744C-837C-1B6F938504DA}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BY18" sqref="BY18"/>
+    <sheetView topLeftCell="AT16" zoomScale="110" workbookViewId="0">
+      <selection activeCell="CB16" sqref="CB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -33647,9 +33726,6 @@
       <c r="BV11" t="s">
         <v>1</v>
       </c>
-      <c r="BW11" t="s">
-        <v>1</v>
-      </c>
       <c r="BY11" t="s">
         <v>1</v>
       </c>
@@ -33965,6 +34041,9 @@
       <c r="BY14" t="s">
         <v>5</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
       <c r="CA14" t="s">
         <v>1</v>
       </c>
@@ -34078,6 +34157,9 @@
       <c r="BY15" t="s">
         <v>1</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>1</v>
+      </c>
       <c r="CA15" t="s">
         <v>1</v>
       </c>
@@ -34185,11 +34267,11 @@
       <c r="AG16" t="s">
         <v>1</v>
       </c>
-      <c r="BV16" t="s">
-        <v>1</v>
-      </c>
       <c r="BY16" t="s">
         <v>5</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>1</v>
       </c>
       <c r="CA16" t="s">
         <v>1</v>
@@ -34349,13 +34431,13 @@
       <c r="BA17" t="s">
         <v>1</v>
       </c>
-      <c r="BV17" t="s">
-        <v>1</v>
-      </c>
       <c r="BX17" t="s">
         <v>1</v>
       </c>
       <c r="BY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="s">
         <v>1</v>
       </c>
       <c r="CA17" t="s">
@@ -34516,11 +34598,11 @@
       <c r="BA18" t="s">
         <v>1</v>
       </c>
-      <c r="BV18" t="s">
-        <v>1</v>
-      </c>
       <c r="BY18" t="s">
         <v>5</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>1</v>
       </c>
       <c r="CA18" t="s">
         <v>1</v>
@@ -34704,6 +34786,9 @@
       <c r="BY19" t="s">
         <v>1</v>
       </c>
+      <c r="BZ19" t="s">
+        <v>1</v>
+      </c>
       <c r="CA19" t="s">
         <v>1</v>
       </c>
@@ -34883,6 +34968,9 @@
       <c r="BY20" t="s">
         <v>17</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>1</v>
+      </c>
       <c r="CA20" t="s">
         <v>1</v>
       </c>
@@ -35074,6 +35162,9 @@
       <c r="BY21" t="s">
         <v>1</v>
       </c>
+      <c r="BZ21" t="s">
+        <v>1</v>
+      </c>
       <c r="CA21" t="s">
         <v>1</v>
       </c>
@@ -35262,6 +35353,9 @@
       <c r="BY22" t="s">
         <v>6</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>1</v>
+      </c>
       <c r="CA22" t="s">
         <v>1</v>
       </c>
@@ -35453,6 +35547,9 @@
       <c r="BY23" t="s">
         <v>1</v>
       </c>
+      <c r="BZ23" t="s">
+        <v>1</v>
+      </c>
       <c r="CA23" t="s">
         <v>1</v>
       </c>
@@ -35641,6 +35738,9 @@
       <c r="BY24" t="s">
         <v>6</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>1</v>
+      </c>
       <c r="CA24" t="s">
         <v>1</v>
       </c>
@@ -35832,6 +35932,9 @@
       <c r="BY25" t="s">
         <v>1</v>
       </c>
+      <c r="BZ25" t="s">
+        <v>1</v>
+      </c>
       <c r="CA25" t="s">
         <v>1</v>
       </c>
@@ -36019,6 +36122,9 @@
       </c>
       <c r="BY26" t="s">
         <v>6</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
         <v>1</v>
@@ -39550,8 +39656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7648C1-7D54-E54D-A93A-16F562D685BB}">
   <dimension ref="A1:CB41"/>
   <sheetViews>
-    <sheetView topLeftCell="AN3" zoomScale="110" workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12"/>
+    <sheetView topLeftCell="AZ11" zoomScale="110" workbookViewId="0">
+      <selection activeCell="CD33" sqref="CD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -41138,9 +41244,6 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-      <c r="BO10" t="s">
-        <v>1</v>
-      </c>
       <c r="BY10" t="s">
         <v>1</v>
       </c>
@@ -41518,6 +41621,9 @@
       <c r="BY14" t="s">
         <v>5</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
       <c r="CA14" t="s">
         <v>1</v>
       </c>
@@ -41622,10 +41728,43 @@
       <c r="AF15" t="s">
         <v>1</v>
       </c>
+      <c r="BN15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>1</v>
+      </c>
       <c r="BX15" t="s">
         <v>1</v>
       </c>
       <c r="BY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>1</v>
       </c>
       <c r="CA15" t="s">
@@ -41738,6 +41877,9 @@
       <c r="BY16" t="s">
         <v>5</v>
       </c>
+      <c r="BZ16" t="s">
+        <v>1</v>
+      </c>
       <c r="CA16" t="s">
         <v>1</v>
       </c>
@@ -41896,10 +42038,46 @@
       <c r="BA17" t="s">
         <v>1</v>
       </c>
+      <c r="BM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>1</v>
+      </c>
       <c r="BX17" t="s">
         <v>1</v>
       </c>
       <c r="BY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="s">
         <v>1</v>
       </c>
       <c r="CA17" t="s">
@@ -42063,6 +42241,9 @@
       <c r="BY18" t="s">
         <v>5</v>
       </c>
+      <c r="BZ18" t="s">
+        <v>1</v>
+      </c>
       <c r="CA18" t="s">
         <v>1</v>
       </c>
@@ -42239,10 +42420,49 @@
       <c r="BG19" t="s">
         <v>1</v>
       </c>
+      <c r="BL19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>1</v>
+      </c>
       <c r="BX19" t="s">
         <v>1</v>
       </c>
       <c r="BY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="s">
         <v>1</v>
       </c>
       <c r="CA19" t="s">
@@ -42424,6 +42644,9 @@
       <c r="BY20" t="s">
         <v>17</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>1</v>
+      </c>
       <c r="CA20" t="s">
         <v>1</v>
       </c>
@@ -42609,10 +42832,52 @@
       <c r="BG21" t="s">
         <v>1</v>
       </c>
+      <c r="BK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>1</v>
+      </c>
       <c r="BX21" t="s">
         <v>1</v>
       </c>
       <c r="BY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>1</v>
       </c>
       <c r="CA21" t="s">
@@ -42803,6 +43068,9 @@
       <c r="BY22" t="s">
         <v>6</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>1</v>
+      </c>
       <c r="CA22" t="s">
         <v>1</v>
       </c>
@@ -42988,10 +43256,55 @@
       <c r="BG23" t="s">
         <v>1</v>
       </c>
+      <c r="BJ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>1</v>
+      </c>
       <c r="BX23" t="s">
         <v>1</v>
       </c>
       <c r="BY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>1</v>
       </c>
       <c r="CA23" t="s">
@@ -43182,6 +43495,9 @@
       <c r="BY24" t="s">
         <v>6</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>1</v>
+      </c>
       <c r="CA24" t="s">
         <v>1</v>
       </c>
@@ -43367,10 +43683,58 @@
       <c r="BG25" t="s">
         <v>1</v>
       </c>
+      <c r="BI25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>1</v>
+      </c>
       <c r="BX25" t="s">
         <v>1</v>
       </c>
       <c r="BY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ25" t="s">
         <v>1</v>
       </c>
       <c r="CA25" t="s">
@@ -43560,6 +43924,9 @@
       </c>
       <c r="BY26" t="s">
         <v>6</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>1</v>
       </c>
       <c r="CA26" t="s">
         <v>1</v>
@@ -47088,6 +47455,7565 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEA86CA-F05D-144E-917B-3A964E017354}">
+  <dimension ref="A1:CB41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AP2" zoomScale="110" workbookViewId="0">
+      <selection activeCell="BL12" sqref="BL12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="74" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.7109375" customWidth="1"/>
+    <col min="76" max="80" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>41</v>
+      </c>
+      <c r="AQ1">
+        <v>42</v>
+      </c>
+      <c r="AR1">
+        <v>43</v>
+      </c>
+      <c r="AS1">
+        <v>44</v>
+      </c>
+      <c r="AT1">
+        <v>45</v>
+      </c>
+      <c r="AU1">
+        <v>46</v>
+      </c>
+      <c r="AV1">
+        <v>47</v>
+      </c>
+      <c r="AW1">
+        <v>48</v>
+      </c>
+      <c r="AX1">
+        <v>49</v>
+      </c>
+      <c r="AY1">
+        <v>50</v>
+      </c>
+      <c r="AZ1">
+        <v>51</v>
+      </c>
+      <c r="BA1">
+        <v>52</v>
+      </c>
+      <c r="BB1">
+        <v>53</v>
+      </c>
+      <c r="BC1">
+        <v>54</v>
+      </c>
+      <c r="BD1">
+        <v>55</v>
+      </c>
+      <c r="BE1">
+        <v>56</v>
+      </c>
+      <c r="BF1">
+        <v>57</v>
+      </c>
+      <c r="BG1">
+        <v>58</v>
+      </c>
+      <c r="BH1">
+        <v>59</v>
+      </c>
+      <c r="BI1">
+        <v>60</v>
+      </c>
+      <c r="BJ1">
+        <v>61</v>
+      </c>
+      <c r="BK1">
+        <v>62</v>
+      </c>
+      <c r="BL1">
+        <v>63</v>
+      </c>
+      <c r="BM1">
+        <v>64</v>
+      </c>
+      <c r="BN1">
+        <v>65</v>
+      </c>
+      <c r="BO1">
+        <v>66</v>
+      </c>
+      <c r="BP1">
+        <v>67</v>
+      </c>
+      <c r="BQ1">
+        <v>68</v>
+      </c>
+      <c r="BR1">
+        <v>69</v>
+      </c>
+      <c r="BS1">
+        <v>70</v>
+      </c>
+      <c r="BT1">
+        <v>71</v>
+      </c>
+      <c r="BU1">
+        <v>72</v>
+      </c>
+      <c r="BV1">
+        <v>73</v>
+      </c>
+      <c r="BW1">
+        <v>74</v>
+      </c>
+      <c r="BX1">
+        <v>75</v>
+      </c>
+      <c r="BY1">
+        <v>76</v>
+      </c>
+      <c r="BZ1">
+        <v>77</v>
+      </c>
+      <c r="CA1">
+        <v>78</v>
+      </c>
+      <c r="CB1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>5</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:80">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795188ED-CB87-2345-B7F6-FB617ED7C899}">
   <dimension ref="C8:E10"/>
   <sheetViews>
